--- a/xlsx/斯堪的纳维亚_intext.xlsx
+++ b/xlsx/斯堪的纳维亚_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
   <si>
     <t>斯堪的纳维亚</t>
   </si>
@@ -29,31 +29,31 @@
     <t>斯堪的纳维亚山脉</t>
   </si>
   <si>
-    <t>政策_政策_美國_斯堪的纳维亚</t>
+    <t>政策_政策_美国_斯堪的纳维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A0%AA%E7%9A%84%E7%B4%8D%E7%B6%AD%E4%BA%9E%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>斯堪的納維亞半島</t>
+    <t>斯堪的纳维亚半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%AC%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>維京時期</t>
+    <t>维京时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%AB%BE%E7%88%BE%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>古諾爾斯語</t>
+    <t>古诺尔斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%AC%E4%BA%BA</t>
   </si>
   <si>
-    <t>維京人</t>
+    <t>维京人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7%E7%A5%9E%E8%AF%9D</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E2%80%93%E6%8C%AA%E5%A8%81</t>
   </si>
   <si>
-    <t>丹麥–挪威</t>
+    <t>丹麦–挪威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E5%92%8C%E6%8C%AA%E5%A8%81%E8%81%94%E7%9B%9F</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>芬蘭歷史</t>
+    <t>芬兰历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>挪威歷史</t>
+    <t>挪威历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E5%8E%86%E5%8F%B2</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>冰島歷史</t>
+    <t>冰岛历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AF%AD%E6%94%AF</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E6%96%AF%E5%A0%AA%E7%9A%84%E7%B4%8D%E7%B6%AD%E4%BA%9E%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>泛斯堪的納維亞主義</t>
+    <t>泛斯堪的纳维亚主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7%E7%90%86%E4%BA%8B%E4%BC%9A</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A0%AA%E7%9A%84%E7%B4%8D%E7%B6%AD%E4%BA%9E%E8%B2%A8%E5%B9%A3%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>斯堪的納維亞貨幣聯盟</t>
+    <t>斯堪的纳维亚货币联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7%E9%98%B2%E5%8D%AB%E5%90%8C%E7%9B%9F</t>
@@ -167,31 +167,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>丹麥語</t>
+    <t>丹麦语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AA%9E</t>
   </si>
   <si>
-    <t>瑞典語</t>
+    <t>瑞典语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>挪威語</t>
+    <t>挪威语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%B1%B3%E8%AA%9E</t>
   </si>
   <si>
-    <t>薩米語</t>
+    <t>萨米语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6%E8%AA%9E</t>
   </si>
   <si>
-    <t>冰島語</t>
+    <t>冰岛语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
@@ -203,19 +203,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>北歐國家</t>
+    <t>北欧国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BE%85%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>法羅群島</t>
+    <t>法罗群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90</t>
   </si>
   <si>
-    <t>北歐</t>
+    <t>北欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E6%BA%90%E5%AD%A6</t>
@@ -227,19 +227,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%88%8A%E7%9C%81</t>
   </si>
   <si>
-    <t>瑞典舊省</t>
+    <t>瑞典旧省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E8%A8%A5</t>
   </si>
   <si>
-    <t>斯科訥</t>
+    <t>斯科讷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AA%9E</t>
   </si>
   <si>
-    <t>原始日耳曼語</t>
+    <t>原始日耳曼语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E6%88%90%E8%AF%8D</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>古羅馬</t>
+    <t>古罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%99%AE%E6%9E%97%E5%B0%BC</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B2%E5%8D%A1%E8%92%82</t>
   </si>
   <si>
-    <t>絲卡蒂</t>
+    <t>丝卡蒂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A0%AA%E7%9A%84%E7%BA%B3%E7%BB%B4%E4%BA%9A%E8%AF%AD%E6%94%AF</t>
@@ -287,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>芬蘭語</t>
+    <t>芬兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>愛沙尼亞語</t>
+    <t>爱沙尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0-%E4%B9%8C%E6%88%88%E5%B0%94%E8%AF%AD%E7%B3%BB</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>匈牙利語</t>
+    <t>匈牙利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8-%E6%8C%AA%E5%A8%81%E8%81%94%E5%90%88</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
   </si>
   <si>
-    <t>普魯士</t>
+    <t>普鲁士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%8B%92%E8%98%87%E7%9B%8A%E6%A0%BC-%E8%8D%B7%E7%88%BE%E6%96%AF%E6%B3%B0%E5%9B%A0</t>
   </si>
   <si>
-    <t>石勒蘇益格-荷爾斯泰因</t>
+    <t>石勒苏益格-荷尔斯泰因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E7%9F%B3%E5%8B%92%E8%8B%8F%E7%9B%8A%E6%A0%BC%E6%88%98%E4%BA%89</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>瑞典議會</t>
+    <t>瑞典议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E5%8D%81%E5%9B%9B%E4%B8%96</t>
@@ -347,19 +347,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E5%B4%99%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>拿破崙戰爭</t>
+    <t>拿破崙战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄羅斯帝國</t>
+    <t>俄罗斯帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>芬蘭大公國</t>
+    <t>芬兰大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%90%88</t>
@@ -371,19 +371,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%B8%BB%E9%82%A6%E8%81%AF</t>
   </si>
   <si>
-    <t>共主邦聯</t>
+    <t>共主邦联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E8%98%AD</t>
   </si>
   <si>
-    <t>格陵蘭</t>
+    <t>格陵兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%88%BE%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>基爾條約</t>
+    <t>基尔条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%8B%92%E8%8B%8F%E7%9B%8A%E6%A0%BC%E5%85%AC%E5%9B%BD</t>
@@ -395,13 +395,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E7%88%BE%E6%96%AF%E6%B3%B0%E5%9B%A0%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>荷爾斯泰因公國</t>
+    <t>荷尔斯泰因公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>奧地利帝國</t>
+    <t>奥地利帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%B2%81%E5%A3%AB%E5%B8%9D%E5%9B%BD</t>
@@ -413,25 +413,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B3%95%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>普法戰爭</t>
+    <t>普法战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>德意志帝國</t>
+    <t>德意志帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E6%B5%B7</t>
   </si>
   <si>
-    <t>波羅的海</t>
+    <t>波罗的海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A0%AA%E7%9A%84%E7%B4%8D%E7%B6%AD%E4%BA%9E%E9%87%91%E8%9E%8D%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>斯堪的納維亞金融聯盟</t>
+    <t>斯堪的纳维亚金融联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%9C%97</t>
@@ -443,31 +443,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
+    <t>货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>北歐理事會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
   </si>
   <si>
-    <t>北欧</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -497,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3078,7 +3072,7 @@
         <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3104,10 +3098,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -3162,10 +3156,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -3191,10 +3185,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3220,10 +3214,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3249,10 +3243,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3278,10 +3272,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3307,10 +3301,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3336,10 +3330,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
